--- a/media/excel_templates/notes_ue_tmplt.xlsx
+++ b/media/excel_templates/notes_ue_tmplt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="12450" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="1" r:id="rId1"/>
@@ -129,103 +129,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,41 +270,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -304,19 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,163 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +513,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -528,30 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -563,26 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +570,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -613,142 +613,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -766,7 +766,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1166,7 +1165,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="13.5"/>
@@ -1200,17 +1199,17 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" ht="21.75" spans="1:21">
       <c r="A3" s="5" t="s">
@@ -1227,17 +1226,17 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" ht="21.75" spans="1:10">
       <c r="A4" s="8" t="s">
@@ -1247,197 +1246,197 @@
         <v>5</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="1" ht="21.75" spans="1:10">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="21.75" spans="1:10">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="21" spans="1:10">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="21" spans="1:10">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>16</v>
       </c>
     </row>
